--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,35 +272,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>61,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,35,42,43,44,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,</t>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,15 +1007,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.875" customWidth="1"/>
     <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.25" customWidth="1"/>
     <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
@@ -1045,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11">
         <v>1200</v>
@@ -1054,7 +1058,7 @@
         <v>1500</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1065,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11">
         <v>3600</v>
@@ -1074,7 +1078,7 @@
         <v>3900</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1085,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>180</v>
@@ -1102,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>180</v>
@@ -1119,7 +1123,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>180</v>
@@ -1153,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>600</v>
@@ -1170,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" s="10">
         <v>10</v>
@@ -1189,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="10">
         <v>30</v>
@@ -1202,6 +1206,23 @@
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1206,23 +1202,6 @@
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11">
-        <v>500</v>
-      </c>
-      <c r="D11">
-        <v>700</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,6 +1206,23 @@
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="D11">
+        <v>700</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,14 @@
   </si>
   <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96,97,98,99,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,6 +1229,40 @@
         <v>700</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>2900</v>
+      </c>
+      <c r="D13">
+        <v>3100</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,39 +280,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101,102,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103,104,105,106,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>34,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96,97,98,99,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +756,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1018,7 +1026,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,38 +1100,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
+        <v>73</v>
+      </c>
+      <c r="C4" s="11">
         <v>180</v>
       </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="11">
+        <v>220</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11">
         <v>180</v>
       </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
+      <c r="D5" s="11">
+        <v>220</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1182,12 +1190,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11">
         <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1201,13 +1209,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="10">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11">
         <v>50</v>
+      </c>
+      <c r="D10" s="11">
+        <v>80</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>59</v>
@@ -1216,11 +1224,11 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -1233,34 +1241,34 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>2900</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>3100</v>
+        <v>100</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>59</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,14 +289,6 @@
   </si>
   <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101,102,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>103,104,105,106,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1023,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="11">
         <v>180</v>
@@ -1114,7 +1106,7 @@
         <v>220</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11">
         <v>180</v>
@@ -1131,7 +1123,7 @@
         <v>220</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -1173,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>600</v>
@@ -1237,40 +1229,6 @@
         <v>700</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12">
-        <v>600</v>
-      </c>
-      <c r="D12">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13" s="11" t="s">
         <v>59</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
@@ -313,6 +309,10 @@
   </si>
   <si>
     <t>40,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,7 @@
         <v>56</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="11">
         <v>1200</v>
@@ -1066,7 +1066,7 @@
         <v>1500</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="11">
         <v>3600</v>
@@ -1086,7 +1086,7 @@
         <v>3900</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11">
         <v>180</v>
@@ -1106,7 +1106,7 @@
         <v>220</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11">
         <v>180</v>
@@ -1123,7 +1123,7 @@
         <v>220</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -1148,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
@@ -1165,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>600</v>
@@ -1182,7 +1182,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="11">
         <v>20</v>
@@ -1191,7 +1191,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" s="10"/>
@@ -1201,7 +1201,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="11">
         <v>50</v>
@@ -1210,7 +1210,7 @@
         <v>80</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -1229,7 +1229,7 @@
         <v>700</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>49</v>
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1733,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1750,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,7 +312,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,14,15,16,17,</t>
+    <t>107,108,109,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,111,112,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113,114,115,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
@@ -1165,30 +1177,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>600</v>
-      </c>
-      <c r="D8">
-        <v>800</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="11">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D9" s="11">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>58</v>
@@ -1200,35 +1214,16 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="11">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11">
-        <v>80</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="C11">
+      <c r="C10">
         <v>500</v>
       </c>
-      <c r="D11">
+      <c r="D10">
         <v>700</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1241,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H8"/>
+      <selection activeCell="A9" sqref="A9:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1450,6 +1445,98 @@
       </c>
       <c r="H8" s="8">
         <v>2555555555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="6">
+        <v>56</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1601913599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1601335800</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1601913599</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1735,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1716,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1733,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1750,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -2026,7 +2113,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2053,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>99999</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2067,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>99999</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -2081,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>99999</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>99999</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,64,65,66,1,2,3,4,5,6,7,8,9,10,11,26,27,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +321,62 @@
   </si>
   <si>
     <t>113,114,115,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,203 +1079,317 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="74.875" customWidth="1"/>
-    <col min="5" max="5" width="64.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.25" customWidth="1"/>
-    <col min="7" max="7" width="41.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="74.875" customWidth="1"/>
+    <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1200</v>
       </c>
       <c r="D2" s="11">
         <v>1500</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="11">
+        <v>1800</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="11">
-        <v>3600</v>
-      </c>
       <c r="D3" s="11">
-        <v>3900</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3300</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="11">
-        <v>180</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D4" s="11">
-        <v>220</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4500</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4800</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>180</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>220</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>250</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="11">
+        <v>180</v>
+      </c>
+      <c r="E6" s="11">
+        <v>220</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>800</v>
-      </c>
-      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="11">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11">
-        <v>30</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="11">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="11">
-        <v>80</v>
-      </c>
-      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="10"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11">
+        <v>40</v>
+      </c>
+      <c r="E10" s="11">
+        <v>80</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11">
+        <v>50</v>
+      </c>
+      <c r="E11" s="11">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11">
+        <v>280</v>
+      </c>
+      <c r="E12" s="11">
+        <v>300</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="11">
+        <v>300</v>
+      </c>
+      <c r="E13" s="11">
         <v>500</v>
       </c>
-      <c r="D10">
+      <c r="F13" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
         <v>700</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1786,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
@@ -1803,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
@@ -1820,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>54</v>
@@ -1837,7 +2003,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +373,18 @@
   </si>
   <si>
     <t>117,118,119,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,46,47,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +508,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -548,6 +556,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1104,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
@@ -1150,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>62</v>
@@ -1173,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>62</v>
@@ -1196,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>62</v>
@@ -1219,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1231,7 +1242,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1239,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1251,7 +1262,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1259,10 +1270,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1279,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1299,10 +1310,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1321,7 +1332,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>63</v>
@@ -1343,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>63</v>
@@ -1363,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1383,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1395,7 +1406,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1403,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -1415,6 +1426,26 @@
         <v>700</v>
       </c>
       <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1429,16 +1460,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="14.125" style="6" customWidth="1"/>
@@ -1502,10 +1533,10 @@
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
       <c r="E3" s="7">
@@ -1526,13 +1557,13 @@
       <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>17</v>
       </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -1552,7 +1583,7 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1576,7 +1607,7 @@
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1599,7 +1630,7 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1622,7 +1653,7 @@
       <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1645,13 +1676,13 @@
       <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>65</v>
       </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
       <c r="F9" s="13"/>
@@ -1669,13 +1700,13 @@
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>66</v>
       </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13">
         <v>1</v>
       </c>
       <c r="F10" s="13"/>
@@ -1693,13 +1724,13 @@
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>67</v>
       </c>
-      <c r="D11" s="12">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13">
         <v>1</v>
       </c>
       <c r="F11" s="13"/>
@@ -1717,13 +1748,13 @@
       <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>68</v>
       </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>5</v>
       </c>
       <c r="F12" s="13"/>
@@ -1930,7 +1961,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1981,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -1998,7 +2029,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2015,7 +2046,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2032,7 +2063,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="create_weight6" sheetId="14" r:id="rId13"/>
     <sheet name="interval" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,22 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>107,108,109,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110,111,112,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>113,114,115,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,6 +361,22 @@
   </si>
   <si>
     <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124,125,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123,124,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,121,122,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117,118,119,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +460,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -494,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -518,12 +524,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1081,25 +1106,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="74.875" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="11" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>75</v>
+      <c r="B1" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>41</v>
@@ -1116,127 +1141,127 @@
       <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1500</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1800</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3000</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>3300</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>4500</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4800</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>180</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>220</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>180</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>220</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D7">
@@ -1250,13 +1275,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D8">
@@ -1270,115 +1295,115 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="10">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10">
+        <v>30</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="10">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10">
         <v>80</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="11">
-        <v>20</v>
-      </c>
-      <c r="E9" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="G10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="10">
+        <v>50</v>
+      </c>
+      <c r="E11" s="10">
+        <v>100</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="10">
+        <v>280</v>
+      </c>
+      <c r="E12" s="10">
+        <v>300</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="11">
-        <v>40</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="10">
+        <v>300</v>
+      </c>
+      <c r="E13" s="10">
+        <v>500</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="11">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11">
-        <v>100</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="11">
-        <v>280</v>
-      </c>
-      <c r="E12" s="11">
-        <v>300</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="11">
-        <v>300</v>
-      </c>
-      <c r="E13" s="11">
-        <v>500</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>82</v>
+      <c r="B14" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -1389,7 +1414,7 @@
       <c r="E14">
         <v>700</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1404,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1613,96 +1638,100 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="6">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6">
-        <v>2</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="C9" s="12">
+        <v>65</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="6">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="C10" s="12">
+        <v>66</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="6">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1601913599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="C11" s="12">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1606751999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="12">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
-        <v>1601335800</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1601913599</v>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>1606176000</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1606751999</v>
       </c>
     </row>
   </sheetData>
@@ -1901,23 +1930,23 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1934,7 +1963,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1947,166 +1976,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" s="14" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="20"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="20"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="20"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="20"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21"/>
+      <c r="B21" s="19"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23"/>
+      <c r="B23" s="19"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24"/>
+      <c r="B24" s="19"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25"/>
+      <c r="B25" s="19"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26"/>
+      <c r="B26" s="19"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27"/>
+      <c r="B27" s="19"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28"/>
+      <c r="B28" s="19"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30"/>
+      <c r="B30" s="19"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31"/>
+      <c r="B31" s="19"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37"/>
+      <c r="B37" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,18 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>|描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,22 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,7 +360,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,43,44,45,46,47,46,47,</t>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,141</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +514,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -557,8 +563,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1117,14 +1130,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="19" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
@@ -1135,9 +1148,9 @@
         <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D1" t="s">
@@ -1161,9 +1174,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="10">
@@ -1184,9 +1197,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="10">
@@ -1207,9 +1220,9 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="10">
@@ -1230,10 +1243,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1242,7 +1255,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1250,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1262,7 +1275,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1270,10 +1283,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1290,10 +1303,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>65</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1310,10 +1323,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1332,9 +1345,9 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="10">
@@ -1354,9 +1367,9 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="10">
@@ -1374,10 +1387,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1394,10 +1407,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1406,7 +1419,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1414,9 +1427,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D14">
@@ -1434,10 +1447,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1458,17 +1471,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="13.125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="8" customWidth="1"/>
     <col min="6" max="6" width="18" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.5" style="6" customWidth="1"/>
@@ -1533,7 +1547,7 @@
       <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>16</v>
       </c>
       <c r="D3" s="8">
@@ -1557,7 +1571,7 @@
       <c r="B4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>17</v>
       </c>
       <c r="D4" s="8">
@@ -1583,7 +1597,7 @@
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="2">
         <v>21</v>
       </c>
       <c r="D5" s="7">
@@ -1607,7 +1621,7 @@
       <c r="B6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="2">
         <v>22</v>
       </c>
       <c r="D6" s="7">
@@ -1630,7 +1644,7 @@
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="2">
         <v>23</v>
       </c>
       <c r="D7" s="7">
@@ -1653,7 +1667,7 @@
       <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="2">
         <v>24</v>
       </c>
       <c r="D8" s="7">
@@ -1676,7 +1690,7 @@
       <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="25">
         <v>65</v>
       </c>
       <c r="D9" s="13">
@@ -1700,7 +1714,7 @@
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="25">
         <v>66</v>
       </c>
       <c r="D10" s="13">
@@ -1724,7 +1738,7 @@
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="25">
         <v>67</v>
       </c>
       <c r="D11" s="13">
@@ -1748,7 +1762,7 @@
       <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="25">
         <v>68</v>
       </c>
       <c r="D12" s="13">
@@ -1763,6 +1777,102 @@
       </c>
       <c r="H12" s="13">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="24">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="24">
+        <v>71</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="24">
+        <v>72</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24">
+        <v>73</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>5</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +2071,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2012,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -2029,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2046,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2063,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,22 +360,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,137</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,6 +369,22 @@
   </si>
   <si>
     <t>40,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,7 +1246,7 @@
         <v>70</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1266,7 +1266,7 @@
         <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1286,7 +1286,7 @@
         <v>71</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1471,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1873,6 +1873,102 @@
       </c>
       <c r="H16" s="24">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="14">
+        <v>74</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14">
+        <v>75</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14">
+        <v>76</v>
+      </c>
+      <c r="D19" s="13">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14">
+        <v>77</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -2070,8 +2166,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2122,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>53</v>
@@ -2139,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>53</v>
@@ -2156,7 +2252,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>54</v>
@@ -2173,7 +2269,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,8 +456,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +527,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +584,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1892,11 +1908,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H17" s="14">
-        <v>1608566399</v>
+      <c r="G17" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H17" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1916,11 +1932,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1608566399</v>
+      <c r="G18" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H18" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1940,11 +1956,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1608566399</v>
+      <c r="G19" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1609171199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1964,11 +1980,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <v>1607990400</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1608566399</v>
+      <c r="G20" s="26">
+        <v>1608595200</v>
+      </c>
+      <c r="H20" s="26">
+        <v>1609171199</v>
       </c>
     </row>
   </sheetData>
@@ -2166,8 +2182,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -491,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,10 +1909,10 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="26">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H17" s="26">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1933,10 +1933,10 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="26">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H18" s="26">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1957,10 +1957,10 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="26">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H19" s="26">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="26">
-        <v>1608595200</v>
+        <v>1609200000</v>
       </c>
       <c r="H20" s="26">
-        <v>1609171199</v>
+        <v>1609775999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -491,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,10 +1909,10 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="26">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H17" s="26">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1933,10 +1933,10 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="26">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H18" s="26">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1957,10 +1957,10 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="26">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H19" s="26">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1981,10 +1981,10 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="26">
-        <v>1609200000</v>
+        <v>1609804800</v>
       </c>
       <c r="H20" s="26">
-        <v>1609775999</v>
+        <v>1610380799</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -380,11 +380,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,167,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,13 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +521,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,10 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,17 +566,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,7 +1150,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="17" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
@@ -1166,7 +1163,7 @@
       <c r="B1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D1" t="s">
@@ -1192,7 +1189,7 @@
       <c r="B2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="10">
@@ -1215,7 +1212,7 @@
       <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="10">
@@ -1238,7 +1235,7 @@
       <c r="B4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="10">
@@ -1261,7 +1258,7 @@
       <c r="B5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="10">
@@ -1281,7 +1278,7 @@
       <c r="B6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="10">
@@ -1301,7 +1298,7 @@
       <c r="B7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>86</v>
       </c>
       <c r="D7">
@@ -1321,7 +1318,7 @@
       <c r="B8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D8">
@@ -1341,7 +1338,7 @@
       <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="10">
@@ -1363,7 +1360,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="10">
@@ -1385,7 +1382,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="10">
@@ -1405,7 +1402,7 @@
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="10">
@@ -1425,7 +1422,7 @@
       <c r="B13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="10">
@@ -1445,7 +1442,7 @@
       <c r="B14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D14">
@@ -1465,7 +1462,7 @@
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D15">
@@ -1489,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,292 +1696,292 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>65</v>
       </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
+      <c r="D9" s="22">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <v>66</v>
       </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="D10" s="22">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <v>67</v>
       </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="D11" s="22">
+        <v>2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <v>68</v>
       </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="22">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22">
         <v>5</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>70</v>
       </c>
-      <c r="D13" s="23">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24">
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>71</v>
       </c>
-      <c r="D14" s="23">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24">
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>72</v>
       </c>
-      <c r="D15" s="23">
-        <v>2</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24">
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>73</v>
       </c>
-      <c r="D16" s="23">
-        <v>2</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22">
         <v>5</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24">
+      <c r="F16" s="22"/>
+      <c r="G16" s="23">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="25">
         <v>74</v>
       </c>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="26">
-        <v>1609804800</v>
-      </c>
-      <c r="H17" s="26">
-        <v>1610380799</v>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27">
+        <v>1610409600</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="25">
         <v>75</v>
       </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="26">
-        <v>1609804800</v>
-      </c>
-      <c r="H18" s="26">
-        <v>1610380799</v>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27">
+        <v>1610409600</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="25">
         <v>76</v>
       </c>
-      <c r="D19" s="13">
-        <v>2</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="26">
-        <v>1609804800</v>
-      </c>
-      <c r="H19" s="26">
-        <v>1610380799</v>
+      <c r="D19" s="26">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27">
+        <v>1610409600</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1610985599</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="25">
         <v>77</v>
       </c>
-      <c r="D20" s="13">
-        <v>2</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="26">
+        <v>2</v>
+      </c>
+      <c r="E20" s="26">
         <v>5</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="26">
-        <v>1609804800</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1610380799</v>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27">
+        <v>1610409600</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1610985599</v>
       </c>
     </row>
   </sheetData>
@@ -2182,14 +2179,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2199,7 +2196,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2229,166 +2226,166 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="20"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="20"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="20"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="20"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="20"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="20"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="20"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="20"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
+      <c r="B37" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -392,7 +392,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,15 +456,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +582,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1906,10 +1905,10 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="27">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H17" s="27">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1930,10 +1929,10 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="27">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H18" s="27">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1954,10 +1953,10 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="27">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H19" s="27">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1978,10 +1977,10 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="27">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="H20" s="27">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -2179,7 +2178,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G17:H18"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,12 +479,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +514,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -581,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1486,7 +1477,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1904,11 +1895,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="26"/>
-      <c r="G17" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1611590399</v>
+      <c r="G17" s="23">
+        <v>1611619200</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1928,11 +1919,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="H18" s="27">
-        <v>1611590399</v>
+      <c r="G18" s="23">
+        <v>1611619200</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1952,11 +1943,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="H19" s="27">
-        <v>1611590399</v>
+      <c r="G19" s="23">
+        <v>1611619200</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1612195199</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1976,11 +1967,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="27">
-        <v>1611014400</v>
-      </c>
-      <c r="H20" s="27">
-        <v>1611590399</v>
+      <c r="G20" s="23">
+        <v>1611619200</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1612195199</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1896,10 +1896,10 @@
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1920,10 +1920,10 @@
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1944,10 +1944,10 @@
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1968,10 +1968,10 @@
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="23">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="23">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="intensity_style|密度" sheetId="3" r:id="rId4"/>
     <sheet name="create" sheetId="6" r:id="rId5"/>
     <sheet name="create_style" sheetId="4" r:id="rId6"/>
-    <sheet name="create_speed_cfg" sheetId="5" r:id="rId7"/>
-    <sheet name="create_weight1" sheetId="7" r:id="rId8"/>
+    <sheet name="create_weight1" sheetId="7" r:id="rId7"/>
+    <sheet name="create_speed_cfg" sheetId="5" r:id="rId8"/>
     <sheet name="create_weight2" sheetId="8" r:id="rId9"/>
     <sheet name="create_weight3" sheetId="9" r:id="rId10"/>
     <sheet name="create_weight4" sheetId="10" r:id="rId11"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,31 +83,6 @@
   </si>
   <si>
     <t>min_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +196,6 @@
   </si>
   <si>
     <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,151 +211,236 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dead_force_create_index|死亡强制创建标志索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+  </si>
+  <si>
+    <t>max_create_num|最大的创建次数（默认为9999）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,29,30,31,32,33,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>30,40,30</t>
   </si>
   <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20,60,5</t>
   </si>
   <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10,10,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dead_force_create_index|死亡强制创建标志索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>max_create_num|最大的创建次数（默认为9999）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,7 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +576,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,17 +603,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -569,11 +623,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -864,7 +937,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,25 +947,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -941,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,56 +1204,64 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="13" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="10">
         <v>1500</v>
@@ -1189,21 +1270,23 @@
         <v>1800</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="10">
         <v>3000</v>
@@ -1212,21 +1295,23 @@
         <v>3300</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="10">
         <v>4500</v>
@@ -1235,21 +1320,23 @@
         <v>4800</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1258,18 +1345,20 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>85</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1278,18 +1367,20 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1298,18 +1389,18 @@
         <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1318,18 +1409,18 @@
         <v>600</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1338,20 +1429,19 @@
         <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D10" s="10">
         <v>40</v>
@@ -1360,20 +1450,19 @@
         <v>80</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1382,18 +1471,20 @@
         <v>100</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1402,18 +1493,20 @@
         <v>300</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1422,18 +1515,20 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1442,18 +1537,18 @@
         <v>700</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>83</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1462,7 +1557,467 @@
         <v>4000</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="25">
+        <v>200</v>
+      </c>
+      <c r="E18" s="25">
+        <v>300</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="32">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="25">
+        <v>200</v>
+      </c>
+      <c r="E19" s="25">
+        <v>300</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="32">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="25">
+        <v>200</v>
+      </c>
+      <c r="E20" s="25">
+        <v>300</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="32">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="25">
+        <v>200</v>
+      </c>
+      <c r="E21" s="25">
+        <v>300</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="32">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="32">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="32">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="32">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="27">
+        <v>200</v>
+      </c>
+      <c r="E23" s="27">
+        <v>300</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="27">
+        <v>200</v>
+      </c>
+      <c r="E24" s="27">
+        <v>300</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="27">
+        <v>200</v>
+      </c>
+      <c r="E25" s="27">
+        <v>300</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="27">
+        <v>200</v>
+      </c>
+      <c r="E26" s="27">
+        <v>300</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="29">
+        <v>200</v>
+      </c>
+      <c r="E28" s="29">
+        <v>300</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="29">
+        <v>200</v>
+      </c>
+      <c r="E29" s="29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="33">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="29">
+        <v>200</v>
+      </c>
+      <c r="E30" s="29">
+        <v>300</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="33">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="29">
+        <v>200</v>
+      </c>
+      <c r="E31" s="29">
+        <v>300</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="33">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="33">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1474,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1495,28 +2050,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1524,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1548,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7">
         <v>16</v>
@@ -1572,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7">
         <v>17</v>
@@ -1598,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -1622,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
@@ -1645,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>23</v>
@@ -1668,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
@@ -1686,293 +2241,277 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="17">
         <v>65</v>
       </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17">
         <v>66</v>
       </c>
-      <c r="D10" s="22">
-        <v>2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="21">
+      <c r="B11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="17">
         <v>67</v>
       </c>
-      <c r="D11" s="22">
-        <v>2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="21">
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17">
         <v>68</v>
       </c>
-      <c r="D12" s="22">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="19">
         <v>70</v>
       </c>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="B14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19">
         <v>71</v>
       </c>
-      <c r="D14" s="22">
-        <v>2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19">
         <v>72</v>
       </c>
-      <c r="D15" s="22">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="23">
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19">
         <v>73</v>
       </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="19">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="25">
-        <v>74</v>
-      </c>
-      <c r="D17" s="26">
-        <v>2</v>
-      </c>
-      <c r="E17" s="26">
-        <v>1</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1612799999</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="25">
-        <v>75</v>
-      </c>
-      <c r="D18" s="26">
-        <v>2</v>
-      </c>
-      <c r="E18" s="26">
-        <v>1</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1612799999</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="25">
-        <v>76</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26">
-        <v>1</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1612799999</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="25">
-        <v>77</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2</v>
-      </c>
-      <c r="E20" s="26">
-        <v>5</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1612799999</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2170,13 +2709,13 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G17:H18"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2184,198 +2723,204 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="B4" s="21"/>
+      <c r="C4" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="B5" s="22"/>
+      <c r="C5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
+      <c r="B6" s="23"/>
+      <c r="C6" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
+      <c r="B37" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2390,7 +2935,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2543,6 +3088,71 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D4"/>
@@ -2618,13 +3228,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B6"/>
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M32" sqref="M32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2634,72 +3244,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="A28:I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1622,10 +1622,10 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="32">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J18" s="32">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="32">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J19" s="32">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1678,10 +1678,10 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="32">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J20" s="32">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1706,10 +1706,10 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="32">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J21" s="32">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1734,10 +1734,10 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="32">
-        <v>1612828800</v>
+        <v>1614643200</v>
       </c>
       <c r="J22" s="32">
-        <v>1613404799</v>
+        <v>1615219199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -361,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>167,168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +434,12 @@
   <si>
     <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
   </si>
 </sst>
 </file>
@@ -513,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,19 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +562,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -623,9 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -634,19 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1184,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1217,8 +1194,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1246,10 +1223,10 @@
       <c r="H1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1275,8 +1252,8 @@
       <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -1300,8 +1277,8 @@
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
@@ -1325,8 +1302,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -1347,8 +1324,8 @@
       <c r="F5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1369,8 +1346,8 @@
       <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1473,8 +1450,8 @@
       <c r="F11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -1495,8 +1472,8 @@
       <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1517,8 +1494,8 @@
       <c r="F13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -1604,419 +1581,399 @@
       <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="B18" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="26">
         <v>200</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="26">
         <v>300</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J18" s="32">
-        <v>1615219199</v>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J18" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="B19" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="26">
         <v>200</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>300</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J19" s="32">
-        <v>1615219199</v>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J19" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="26">
         <v>200</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="26">
         <v>300</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J20" s="32">
-        <v>1615219199</v>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="B21" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="26">
         <v>200</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="26">
         <v>300</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J21" s="32">
-        <v>1615219199</v>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J21" s="28">
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="26" t="s">
+      <c r="B22" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="26">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="26">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="28">
+        <v>1615248000</v>
+      </c>
+      <c r="J22" s="28">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="25">
+      <c r="C23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="25">
+        <v>200</v>
+      </c>
+      <c r="E23" s="25">
+        <v>300</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="25">
+        <v>200</v>
+      </c>
+      <c r="E24" s="25">
+        <v>300</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="25">
+        <v>200</v>
+      </c>
+      <c r="E25" s="25">
+        <v>300</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="25">
+        <v>200</v>
+      </c>
+      <c r="E26" s="25">
+        <v>300</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="25">
         <v>3000</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E27" s="25">
         <v>3000</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F27" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="32">
-        <v>1614643200</v>
-      </c>
-      <c r="J22" s="32">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="I27" s="23">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="23">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="25">
+        <v>200</v>
+      </c>
+      <c r="E28" s="25">
+        <v>300</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="25">
+        <v>200</v>
+      </c>
+      <c r="E29" s="25">
+        <v>300</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="25">
+        <v>200</v>
+      </c>
+      <c r="E30" s="25">
+        <v>300</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="25">
+        <v>200</v>
+      </c>
+      <c r="E31" s="25">
+        <v>300</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="23">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="23">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="27">
-        <v>200</v>
-      </c>
-      <c r="E23" s="27">
-        <v>300</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="C32" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J23" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="27">
-        <v>200</v>
-      </c>
-      <c r="E24" s="27">
-        <v>300</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J24" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="27">
-        <v>200</v>
-      </c>
-      <c r="E25" s="27">
-        <v>300</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J25" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="27">
-        <v>200</v>
-      </c>
-      <c r="E26" s="27">
-        <v>300</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J26" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="27">
-        <v>3000</v>
-      </c>
-      <c r="E27" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J27" s="20">
-        <v>1614009599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="29">
-        <v>200</v>
-      </c>
-      <c r="E28" s="29">
-        <v>300</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="33">
+      <c r="I32" s="23">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="29">
-        <v>200</v>
-      </c>
-      <c r="E29" s="29">
-        <v>300</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J29" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="29">
-        <v>200</v>
-      </c>
-      <c r="E30" s="29">
-        <v>300</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J30" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="29">
-        <v>200</v>
-      </c>
-      <c r="E31" s="29">
-        <v>300</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J31" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="29">
-        <v>3000</v>
-      </c>
-      <c r="E32" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J32" s="33">
+      <c r="J32" s="23">
         <v>1614614399</v>
       </c>
     </row>
@@ -2476,7 +2433,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -2486,7 +2443,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -2496,7 +2453,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -2506,7 +2463,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -2757,86 +2714,86 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
-      <c r="B7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J18" s="28">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J19" s="28">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J20" s="28">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J21" s="28">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="J22" s="28">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -270,176 +270,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>34,34,34,137,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37,37,139,192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40,40,141,194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>活动鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一网打尽</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1335,7 +1335,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1357,7 +1357,7 @@
         <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>53</v>
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>51</v>
@@ -1458,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1480,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -1522,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1542,10 +1542,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,7 +1554,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,7 +1574,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J18" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J19" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1638,10 +1638,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J20" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J21" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D22" s="26">
         <v>3000</v>
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1615852800</v>
+        <v>1616457600</v>
       </c>
       <c r="J22" s="28">
-        <v>1616428799</v>
+        <v>1617033599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1722,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1748,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1800,10 +1800,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1826,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1878,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1904,10 +1904,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1930,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1956,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2716,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -242,203 +242,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>40,40,40,141,194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,34,34,137,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37,37,139,192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>34,34,34,137,190,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,37,37,139,192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,40,40,141,194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>34</v>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>50</v>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>50</v>
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>50</v>
@@ -1310,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1322,7 +1322,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -1332,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1344,7 +1344,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -1354,10 +1354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1374,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>51</v>
@@ -1458,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1480,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -1502,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>52</v>
@@ -1522,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1542,10 +1542,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,7 +1554,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,7 +1574,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J18" s="28">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J19" s="28">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1638,10 +1638,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J20" s="28">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J21" s="28">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1694,16 +1694,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D22" s="26">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="26">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="26" t="s">
         <v>47</v>
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1616457600</v>
+        <v>1617062400</v>
       </c>
       <c r="J22" s="28">
-        <v>1617033599</v>
+        <v>1617638399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1722,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1748,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1800,10 +1800,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1826,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1878,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1904,10 +1904,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1930,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1956,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2716,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J18" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J19" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J20" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J21" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J22" s="28">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -238,207 +238,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,34,34,137,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37,37,139,192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40,40,141,194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126,127,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>40,40,40,141,194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,34,34,137,190,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,37,37,139,192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,35,42,43,44,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>34</v>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>50</v>
@@ -1260,7 +1260,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>50</v>
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>50</v>
@@ -1310,10 +1310,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1322,7 +1322,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
@@ -1332,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1344,7 +1344,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
@@ -1354,10 +1354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1374,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1394,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>51</v>
@@ -1436,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>51</v>
@@ -1458,10 +1458,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1480,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1492,7 +1492,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
@@ -1502,10 +1502,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1522,10 +1522,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1542,10 +1542,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,7 +1554,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,7 +1574,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1582,10 +1582,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J18" s="28">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J19" s="28">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1638,10 +1638,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J20" s="28">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J21" s="28">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="26">
         <v>2400</v>
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1617667200</v>
+        <v>1618272000</v>
       </c>
       <c r="J22" s="28">
-        <v>1618243199</v>
+        <v>1618847999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -1722,10 +1722,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1748,10 +1748,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1774,10 +1774,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1800,10 +1800,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1826,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1852,10 +1852,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1878,10 +1878,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1904,10 +1904,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1930,10 +1930,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1956,10 +1956,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2716,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2731,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2746,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1599,10 +1599,10 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
       <c r="I18" s="28">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J18" s="28">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1627,10 +1627,10 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="28">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J19" s="28">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1655,10 +1655,10 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="28">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J20" s="28">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="28">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J21" s="28">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1711,10 +1711,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="28">
-        <v>1618272000</v>
+        <v>1619481600</v>
       </c>
       <c r="J22" s="28">
-        <v>1618847999</v>
+        <v>1620662399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -306,139 +306,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
+  </si>
+  <si>
+    <t>35,35,42,43,44,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,34,34,137,190,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,37,37,139,192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,40,40,141,194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>红包鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>红包鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
     <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,188,188,189,189,189,189,189,189,189,</t>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>161,162,163,164,165,166,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.16</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.16</t>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼2.23</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss2.23</t>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>create_weight1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规活动鱼</t>
-  </si>
-  <si>
-    <t>常规活动鱼boss</t>
-  </si>
-  <si>
-    <t>35,35,42,43,44,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,34,34,137,190,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,37,37,139,192</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,40,40,141,194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68,69,70,71,72,73,74,82,83,84,85,86,87,88,67,81,75,76,77,78,79,80,89,90,91,92,93,94,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1224,10 +1224,10 @@
         <v>48</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1335,7 +1335,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1357,7 +1357,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1377,7 +1377,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1483,7 +1483,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1505,7 +1505,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1537,15 +1537,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1554,18 +1554,20 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1574,18 +1576,20 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D18" s="26">
         <v>200</v>
@@ -1610,10 +1614,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D19" s="26">
         <v>200</v>
@@ -1638,10 +1642,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" s="26">
         <v>200</v>
@@ -1666,10 +1670,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D21" s="26">
         <v>200</v>
@@ -1694,10 +1698,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D22" s="26">
         <v>2400</v>
@@ -1718,14 +1722,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23" s="25">
         <v>200</v>
@@ -1744,14 +1748,14 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D24" s="25">
         <v>200</v>
@@ -1770,14 +1774,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D25" s="25">
         <v>200</v>
@@ -1796,14 +1800,14 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D26" s="25">
         <v>200</v>
@@ -1822,14 +1826,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" s="25">
         <v>3000</v>
@@ -1848,14 +1852,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D28" s="25">
         <v>200</v>
@@ -1874,14 +1878,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D29" s="25">
         <v>200</v>
@@ -1900,14 +1904,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D30" s="25">
         <v>200</v>
@@ -1926,14 +1930,14 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D31" s="25">
         <v>200</v>
@@ -1952,14 +1956,14 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D32" s="25">
         <v>3000</v>
@@ -2716,13 +2720,13 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,13 +2735,13 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2746,13 +2750,13 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="19" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -2761,13 +2765,13 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -299,19 +299,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,29 +327,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -364,57 +334,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,32 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,7 +373,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,7 +496,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,175 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,20 +707,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,7 +748,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,8 +771,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,31 +792,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,138 +821,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -974,10 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -989,11 +982,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1008,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
@@ -1618,7 +1611,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2030,10 +2023,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J18" s="7">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2058,10 +2051,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J19" s="7">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2086,10 +2079,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J20" s="7">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2114,10 +2107,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J21" s="7">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2142,10 +2135,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1621296000</v>
+        <v>1621900800</v>
       </c>
       <c r="J22" s="7">
-        <v>1621871999</v>
+        <v>1622476799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="7" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -299,10 +299,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -333,8 +333,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,48 +413,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -409,36 +438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,8 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,15 +462,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,13 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,61 +586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +604,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +640,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,31 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,11 +705,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +731,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,72 +797,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,138 +821,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2023,10 +2023,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J18" s="7">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2051,10 +2051,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J19" s="7">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2079,10 +2079,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J20" s="7">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2107,10 +2107,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J21" s="7">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2135,10 +2135,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1621900800</v>
+        <v>1622505600</v>
       </c>
       <c r="J22" s="7">
-        <v>1622476799</v>
+        <v>1623081599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -299,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -327,6 +327,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -343,19 +350,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,10 +371,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -383,15 +407,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,27 +444,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,31 +468,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,7 +496,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,61 +634,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,109 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,17 +705,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,46 +773,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,26 +802,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,138 +821,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I18" sqref="I18:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2023,10 +2023,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J18" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2051,10 +2051,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J19" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2079,10 +2079,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J20" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2107,10 +2107,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J21" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2135,10 +2135,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1622505600</v>
+        <v>1623110400</v>
       </c>
       <c r="J22" s="7">
-        <v>1623081599</v>
+        <v>1623686399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>no</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>185,186,187</t>
+  </si>
+  <si>
+    <t>202,</t>
   </si>
 </sst>
 </file>
@@ -299,15 +302,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,7 +337,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,24 +377,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,58 +423,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,32 +462,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +512,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,169 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,50 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -769,6 +735,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,17 +803,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,140 +831,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -967,10 +977,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -982,11 +995,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1001,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
@@ -1345,28 +1358,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1412,10 +1425,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1461,10 +1474,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1518,10 +1531,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1567,10 +1580,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1608,10 +1621,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2023,10 +2036,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J18" s="7">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2051,10 +2064,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J19" s="7">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2079,10 +2092,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J20" s="7">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2107,13 +2120,13 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="J21" s="7">
-        <v>1623686399</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:10">
+        <v>1624895999</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="13" customHeight="1" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2134,11 +2147,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="7">
-        <v>1623110400</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1623686399</v>
+      <c r="I22" s="8">
+        <v>1623167999</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2160,10 +2173,10 @@
       <c r="F23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2186,10 +2199,10 @@
       <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2212,10 +2225,10 @@
       <c r="F25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2238,10 +2251,10 @@
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2264,10 +2277,10 @@
       <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="9">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -2290,10 +2303,10 @@
       <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2316,10 +2329,10 @@
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2342,10 +2355,10 @@
       <c r="F30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2368,10 +2381,10 @@
       <c r="F31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2394,11 +2407,39 @@
       <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="9">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="9">
         <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="13" customHeight="1" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2400</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="7">
+        <v>1624320000</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>
@@ -2419,481 +2460,481 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="13.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="13.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="20" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="21">
         <v>15</v>
       </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="21">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21">
         <v>5</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="21">
         <v>16</v>
       </c>
-      <c r="D3" s="21">
-        <v>2</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21">
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="22">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="21">
         <v>17</v>
       </c>
-      <c r="D4" s="21">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="D4" s="22">
+        <v>2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
         <v>1200</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="21">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="22">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>21</v>
       </c>
-      <c r="D5" s="20">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21">
+      <c r="D5" s="21">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>22</v>
       </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="D6" s="21">
+        <v>2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2</v>
+      </c>
+      <c r="G6" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="22">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>23</v>
       </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="21">
+      <c r="D7" s="21">
+        <v>2</v>
+      </c>
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="22">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>24</v>
       </c>
-      <c r="D8" s="20">
-        <v>2</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21">
+      <c r="D8" s="21">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="22">
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="1:8">
-      <c r="A9" s="18">
+    <row r="9" s="19" customFormat="1" spans="1:8">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="24">
         <v>65</v>
       </c>
-      <c r="D9" s="24">
-        <v>2</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24">
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="25">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" s="18" customFormat="1" spans="1:8">
-      <c r="A10" s="18">
+    <row r="10" s="19" customFormat="1" spans="1:8">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="24">
         <v>66</v>
       </c>
-      <c r="D10" s="24">
-        <v>2</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24">
+      <c r="D10" s="25">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="25">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:8">
-      <c r="A11" s="18">
+    <row r="11" s="19" customFormat="1" spans="1:8">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="24">
         <v>67</v>
       </c>
-      <c r="D11" s="24">
-        <v>2</v>
-      </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="25">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" s="18" customFormat="1" spans="1:8">
-      <c r="A12" s="18">
+    <row r="12" s="19" customFormat="1" spans="1:8">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="24">
         <v>68</v>
       </c>
-      <c r="D12" s="24">
-        <v>2</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25">
         <v>5</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24">
+      <c r="F12" s="25"/>
+      <c r="G12" s="25">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="25">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="18" customFormat="1" spans="1:8">
-      <c r="A13" s="18">
+    <row r="13" s="19" customFormat="1" spans="1:8">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>70</v>
       </c>
-      <c r="D13" s="24">
-        <v>2</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="11">
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="12">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="18" customFormat="1" spans="1:8">
-      <c r="A14" s="18">
+    <row r="14" s="19" customFormat="1" spans="1:8">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <v>71</v>
       </c>
-      <c r="D14" s="24">
-        <v>2</v>
-      </c>
-      <c r="E14" s="24">
-        <v>1</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="11">
+      <c r="D14" s="25">
+        <v>2</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="12">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="18" customFormat="1" spans="1:8">
-      <c r="A15" s="18">
+    <row r="15" s="19" customFormat="1" spans="1:8">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>72</v>
       </c>
-      <c r="D15" s="24">
-        <v>2</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="11">
+      <c r="D15" s="25">
+        <v>2</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="12">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="18" customFormat="1" spans="1:8">
-      <c r="A16" s="18">
+    <row r="16" s="19" customFormat="1" spans="1:8">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>73</v>
       </c>
-      <c r="D16" s="24">
-        <v>2</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="D16" s="25">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25">
         <v>5</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="11">
+      <c r="F16" s="25"/>
+      <c r="G16" s="12">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2913,14 +2954,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2952,17 +2993,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3096,162 +3137,162 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="10"/>
-    <col min="2" max="2" width="40.5" style="12" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="10"/>
+    <col min="1" max="1" width="10.75" style="11"/>
+    <col min="2" max="2" width="40.5" style="13" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" spans="1:5">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="11" t="s">
+    <row r="3" s="12" customFormat="1" spans="1:5">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="11" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="11">
+    <row r="4" s="12" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="11" customFormat="1" spans="1:5">
-      <c r="A5" s="11">
+    <row r="5" s="12" customFormat="1" spans="1:5">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="11" customFormat="1" spans="1:5">
-      <c r="A6" s="11">
+    <row r="6" s="12" customFormat="1" spans="1:5">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="17"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="17"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="17"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="17"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="17"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="17"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2"/>
@@ -3322,17 +3363,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3481,10 +3522,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3545,62 +3586,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="10"/>
+    <col min="1" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
         <v>30</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>40</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>30</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>25</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3622,10 +3663,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
     </row>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,29 +337,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,8 +379,85 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,86 +471,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,61 +566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,37 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +608,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,25 +650,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,11 +715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,10 +756,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -753,8 +766,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,55 +802,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,138 +831,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -977,10 +977,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1623,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2036,10 +2036,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J18" s="7">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2064,10 +2064,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J19" s="7">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2092,10 +2092,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J20" s="7">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2120,10 +2120,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J21" s="7">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13" customHeight="1" spans="1:10">
@@ -2147,11 +2147,11 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="8">
-        <v>1623167999</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1623254399</v>
+      <c r="I22" s="7">
+        <v>1624924800</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1625500799</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">
@@ -2173,10 +2173,10 @@
       <c r="F23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2199,10 +2199,10 @@
       <c r="F24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2225,10 +2225,10 @@
       <c r="F25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2251,10 +2251,10 @@
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2277,10 +2277,10 @@
       <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>1614009599</v>
       </c>
     </row>
@@ -2303,10 +2303,10 @@
       <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2329,10 +2329,10 @@
       <c r="F29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2355,10 +2355,10 @@
       <c r="F30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2381,10 +2381,10 @@
       <c r="F31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2407,10 +2407,10 @@
       <c r="F32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>1614614399</v>
       </c>
     </row>
@@ -2435,11 +2435,11 @@
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="7">
-        <v>1624320000</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1624895999</v>
+      <c r="I33" s="9">
+        <v>1623167999</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1623254399</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -302,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -337,6 +337,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -348,9 +355,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,36 +409,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,16 +440,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,29 +457,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,14 +479,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,7 +506,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,37 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,103 +668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,6 +716,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -732,24 +747,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,6 +761,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,28 +812,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,138 +831,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1624,7 +1624,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="I22" sqref="I22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2036,10 +2036,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J18" s="7">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2064,10 +2064,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J19" s="7">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2092,10 +2092,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J20" s="7">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2120,10 +2120,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J21" s="7">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13" customHeight="1" spans="1:10">
@@ -2148,10 +2148,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1624924800</v>
+        <v>1625529600</v>
       </c>
       <c r="J22" s="7">
-        <v>1625500799</v>
+        <v>1626105599</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -302,8 +302,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -363,6 +363,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -380,21 +395,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,16 +470,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,25 +506,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,13 +566,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,31 +596,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +620,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,73 +674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +730,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -741,17 +765,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,15 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -798,17 +802,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,130 +834,130 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1623,8 +1623,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2036,10 +2036,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J18" s="7">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2064,10 +2064,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J19" s="7">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2092,10 +2092,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J20" s="7">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2120,10 +2120,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J21" s="7">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13" customHeight="1" spans="1:10">
@@ -2148,10 +2148,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1625529600</v>
+        <v>1626739200</v>
       </c>
       <c r="J22" s="7">
-        <v>1626105599</v>
+        <v>1627315199</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:10">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -300,14 +305,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,14 +338,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,137 +347,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,194 +379,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -714,255 +403,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -983,7 +430,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,7 +442,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1006,86 +453,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 4 2" xfId="4"/>
     <cellStyle name="常规 4 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 4 2" xfId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1343,21 +746,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:8">
+    <row r="1" spans="1:8" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1407,24 +810,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1440,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1448,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1457,23 +859,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1489,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1497,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1505,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1514,23 +915,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1546,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1554,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1563,23 +963,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1595,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1603,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1612,22 +1011,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:J22"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="I19" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="74.875" style="2" customWidth="1"/>
@@ -1637,7 +1035,7 @@
     <col min="10" max="10" width="17.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1691,10 +1089,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1716,10 +1112,8 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1741,10 +1135,8 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1763,10 +1155,8 @@
       <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1785,10 +1175,8 @@
       <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1808,7 +1196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1828,7 +1216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1848,7 +1236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1868,7 +1256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1887,10 +1275,8 @@
       <c r="F11" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1909,10 +1295,8 @@
       <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:10">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1931,10 +1315,8 @@
       <c r="F13" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1954,7 +1336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1974,7 +1356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1994,7 +1376,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2014,7 +1396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2036,13 +1418,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J18" s="7">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2064,13 +1446,13 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J19" s="7">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2092,13 +1474,13 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J20" s="7">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2120,13 +1502,13 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J21" s="7">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="13" customHeight="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2148,13 +1530,13 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1626739200</v>
+        <v>1627344000</v>
       </c>
       <c r="J22" s="7">
-        <v>1627315199</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:10">
+        <v>1627919999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2180,7 +1562,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2206,7 +1588,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2232,7 +1614,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2258,7 +1640,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2284,7 +1666,7 @@
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2310,7 +1692,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
+    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2336,7 +1718,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2362,7 +1744,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:10">
+    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2388,7 +1770,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2414,7 +1796,7 @@
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="13" customHeight="1" spans="1:10">
+    <row r="33" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2443,22 +1825,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="13.125" style="20" customWidth="1"/>
@@ -2471,7 +1852,7 @@
     <col min="9" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2497,7 +1878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -2521,7 +1902,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -2545,7 +1926,7 @@
         <v>1570456800</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -2571,7 +1952,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -2595,7 +1976,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2618,7 +1999,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2641,7 +2022,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2664,7 +2045,7 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -2688,7 +2069,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" spans="1:8">
+    <row r="10" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -2712,7 +2093,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" s="19" customFormat="1" spans="1:8">
+    <row r="11" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -2736,7 +2117,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="1:8">
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -2760,7 +2141,7 @@
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" spans="1:8">
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -2784,7 +2165,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" spans="1:8">
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -2808,7 +2189,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="19" customFormat="1" spans="1:8">
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -2832,7 +2213,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="19" customFormat="1" spans="1:8">
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -2856,7 +2237,7 @@
         <v>1607961599</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="12"/>
@@ -2866,7 +2247,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="12"/>
@@ -2876,7 +2257,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="12"/>
@@ -2886,7 +2267,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="12"/>
@@ -2896,7 +2277,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="26"/>
@@ -2906,7 +2287,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="26"/>
@@ -2916,7 +2297,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="26"/>
@@ -2926,7 +2307,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="26"/>
@@ -2937,24 +2318,23 @@
       <c r="H24" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="27" spans="1:3">
+    <row r="1" spans="1:3" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +2345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2977,23 +2357,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3007,7 +2386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3021,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3035,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3049,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3063,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3077,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3091,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3105,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3120,22 +2499,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="11"/>
     <col min="2" max="2" width="40.5" style="13" customWidth="1"/>
@@ -3144,7 +2522,7 @@
     <col min="6" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="55.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="10" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -3161,7 +2539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3176,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3191,7 +2569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="17.1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3206,7 +2584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3221,7 +2599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3236,134 +2614,133 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="16"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="16"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="6"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3377,7 +2754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3391,7 +2768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3405,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3419,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3433,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3447,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3461,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3475,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3489,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3504,24 +2881,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +2905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3537,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3545,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3553,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3561,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3570,26 +2946,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3603,7 +2978,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3617,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -3631,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -3646,23 +3021,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M32" sqref="M32:M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="46.5" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3670,7 +3044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3678,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3686,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3695,7 +3069,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="I19" sqref="I18:I19"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J18" s="7">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J19" s="7">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J20" s="7">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1627344000</v>
+        <v>1627948800</v>
       </c>
       <c r="J21" s="7">
-        <v>1627919999</v>
+        <v>1628524799</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J18" s="7">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J19" s="7">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J20" s="7">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1627948800</v>
+        <v>1628553600</v>
       </c>
       <c r="J21" s="7">
-        <v>1628524799</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1627344000</v>
+        <v>1628553600</v>
       </c>
       <c r="J22" s="7">
-        <v>1627919999</v>
+        <v>1629129599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J18" s="7">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J19" s="7">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J20" s="7">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J21" s="7">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1628553600</v>
+        <v>1629158400</v>
       </c>
       <c r="J22" s="7">
-        <v>1629129599</v>
+        <v>1629734399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J18" s="7">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J19" s="7">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J20" s="7">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J21" s="7">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1629158400</v>
+        <v>1629763200</v>
       </c>
       <c r="J22" s="7">
-        <v>1629734399</v>
+        <v>1630339199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J18" s="7">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J19" s="7">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J20" s="7">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J21" s="7">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1629763200</v>
+        <v>1632182400</v>
       </c>
       <c r="J22" s="7">
-        <v>1630339199</v>
+        <v>1632758399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J18" s="7">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J19" s="7">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J20" s="7">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J21" s="7">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1632182400</v>
+        <v>1633996800</v>
       </c>
       <c r="J22" s="7">
-        <v>1632758399</v>
+        <v>1634572799</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J18" s="7">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J19" s="7">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J20" s="7">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J21" s="7">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1633996800</v>
+        <v>1634601600</v>
       </c>
       <c r="J22" s="7">
-        <v>1634572799</v>
+        <v>1635177599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="J18" sqref="J18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J18" s="7">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J19" s="7">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J20" s="7">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J21" s="7">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1634601600</v>
+        <v>1635206400</v>
       </c>
       <c r="J22" s="7">
-        <v>1635177599</v>
+        <v>1635782399</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J22"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J18" s="7">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J19" s="7">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J20" s="7">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J21" s="7">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1635206400</v>
+        <v>1637625600</v>
       </c>
       <c r="J22" s="7">
-        <v>1635782399</v>
+        <v>1638201599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J18" s="7">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J19" s="7">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J20" s="7">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J21" s="7">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1637625600</v>
+        <v>1638835200</v>
       </c>
       <c r="J22" s="7">
-        <v>1638201599</v>
+        <v>1639411199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J18" s="7">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J19" s="7">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J20" s="7">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J21" s="7">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1638835200</v>
+        <v>1640649600</v>
       </c>
       <c r="J22" s="7">
-        <v>1639411199</v>
+        <v>1641225599</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J18" s="7">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J19" s="7">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J20" s="7">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J21" s="7">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1640649600</v>
+        <v>1641859200</v>
       </c>
       <c r="J22" s="7">
-        <v>1641225599</v>
+        <v>1643039999</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_Release/fish_3d_yutu_random_2.xlsx
+++ b/config_Release/fish_3d_yutu_random_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J18" s="7">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1446,10 +1446,10 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J19" s="7">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="7">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J20" s="7">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1502,10 +1502,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J21" s="7">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>1641859200</v>
+        <v>1643068800</v>
       </c>
       <c r="J22" s="7">
-        <v>1643039999</v>
+        <v>1645459199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
